--- a/healthman-mock/v2/data/classes/计算机与人工智能学院.xlsx
+++ b/healthman-mock/v2/data/classes/计算机与人工智能学院.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -452,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>录入年份</t>
+          <t>年级</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>年级</t>
+          <t>教师工号</t>
         </is>
       </c>
     </row>
@@ -475,12 +474,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2019</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000998</t>
         </is>
       </c>
     </row>
@@ -498,12 +499,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2019</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000512</t>
         </is>
       </c>
     </row>
@@ -521,12 +524,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>2019</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000714</t>
         </is>
       </c>
     </row>
@@ -544,12 +549,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2019</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000395</t>
         </is>
       </c>
     </row>
@@ -567,12 +574,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2019</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000767</t>
         </is>
       </c>
     </row>
@@ -590,12 +599,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2019</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000548</t>
         </is>
       </c>
     </row>
@@ -613,12 +624,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2019</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000149</t>
         </is>
       </c>
     </row>
@@ -636,12 +649,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2019</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000917</t>
         </is>
       </c>
     </row>
@@ -659,12 +674,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2019</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000196</t>
         </is>
       </c>
     </row>
@@ -682,12 +699,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2019</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000356</t>
         </is>
       </c>
     </row>
@@ -705,12 +724,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2019</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000947</t>
         </is>
       </c>
     </row>
@@ -728,12 +749,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>2019</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000689</t>
         </is>
       </c>
     </row>
@@ -751,12 +774,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2019</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000233</t>
         </is>
       </c>
     </row>
@@ -774,12 +799,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2020</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000242</t>
         </is>
       </c>
     </row>
@@ -797,12 +824,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>2020</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000811</t>
         </is>
       </c>
     </row>
@@ -820,12 +849,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>2020</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000580</t>
         </is>
       </c>
     </row>
@@ -843,12 +874,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>2020</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000979</t>
         </is>
       </c>
     </row>
@@ -866,12 +899,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>2020</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000713</t>
         </is>
       </c>
     </row>
@@ -889,12 +924,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2020</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000642</t>
         </is>
       </c>
     </row>
@@ -912,12 +949,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2020</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000010</t>
         </is>
       </c>
     </row>
@@ -935,12 +974,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2020</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000912</t>
         </is>
       </c>
     </row>
@@ -958,12 +999,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>2020</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000207</t>
         </is>
       </c>
     </row>
@@ -981,12 +1024,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>2020</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000433</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1049,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>2020</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000753</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1074,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>2020</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000927</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1099,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>2021</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000575</t>
         </is>
       </c>
     </row>
@@ -1073,12 +1124,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>2021</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000781</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1149,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>2021</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000316</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1174,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>2021</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000352</t>
         </is>
       </c>
     </row>
@@ -1142,12 +1199,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>2021</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000106</t>
         </is>
       </c>
     </row>
@@ -1165,12 +1224,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>2021</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000874</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1249,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>2021</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000636</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1274,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>2021</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000335</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1299,14 @@
           <t>计算机与人工智能学院</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>2021</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000810</t>
         </is>
       </c>
     </row>

--- a/healthman-mock/v2/data/classes/计算机与人工智能学院.xlsx
+++ b/healthman-mock/v2/data/classes/计算机与人工智能学院.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -481,7 +482,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000998</t>
+          <t>000154</t>
         </is>
       </c>
     </row>
@@ -506,7 +507,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000512</t>
+          <t>000142</t>
         </is>
       </c>
     </row>
@@ -531,7 +532,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000714</t>
+          <t>000168</t>
         </is>
       </c>
     </row>
@@ -556,7 +557,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000395</t>
+          <t>000043</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>000152</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000548</t>
+          <t>000085</t>
         </is>
       </c>
     </row>
@@ -631,7 +632,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000149</t>
+          <t>000161</t>
         </is>
       </c>
     </row>
@@ -656,7 +657,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>000917</t>
+          <t>000103</t>
         </is>
       </c>
     </row>
@@ -681,7 +682,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>000196</t>
+          <t>000034</t>
         </is>
       </c>
     </row>
@@ -706,7 +707,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000356</t>
+          <t>000149</t>
         </is>
       </c>
     </row>
@@ -731,7 +732,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000947</t>
+          <t>000100</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>000027</t>
         </is>
       </c>
     </row>
@@ -781,7 +782,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>000233</t>
+          <t>000212</t>
         </is>
       </c>
     </row>
@@ -806,7 +807,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>000242</t>
+          <t>000029</t>
         </is>
       </c>
     </row>
@@ -831,7 +832,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>000811</t>
+          <t>000050</t>
         </is>
       </c>
     </row>
@@ -856,7 +857,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>000580</t>
+          <t>000090</t>
         </is>
       </c>
     </row>
@@ -881,7 +882,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>000010</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>000713</t>
+          <t>000133</t>
         </is>
       </c>
     </row>
@@ -931,7 +932,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>000642</t>
+          <t>000204</t>
         </is>
       </c>
     </row>
@@ -956,7 +957,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000227</t>
         </is>
       </c>
     </row>
@@ -981,7 +982,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>000912</t>
+          <t>000091</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>000207</t>
+          <t>000118</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1032,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>000209</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>000753</t>
+          <t>000132</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1082,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>000172</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1107,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>000575</t>
+          <t>000211</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1132,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>000781</t>
+          <t>000116</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1157,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>000316</t>
+          <t>000104</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1182,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>000352</t>
+          <t>000210</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>000106</t>
+          <t>000093</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1232,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>000874</t>
+          <t>000120</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1257,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>000636</t>
+          <t>000207</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1282,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>000335</t>
+          <t>000206</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1307,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>000150</t>
         </is>
       </c>
     </row>
